--- a/CSVs/Table2_tests.xlsx
+++ b/CSVs/Table2_tests.xlsx
@@ -495,10 +495,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.09790898246364332</v>
+        <v>0.09790898246364343</v>
       </c>
       <c r="H2">
-        <v>0.114725336812012</v>
+        <v>0.1147253368120121</v>
       </c>
       <c r="I2">
         <v>1e-07</v>
@@ -525,10 +525,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.06580258704375308</v>
+        <v>0.06580258704375286</v>
       </c>
       <c r="H3">
-        <v>0.07283774184009099</v>
+        <v>0.07283774184009072</v>
       </c>
       <c r="I3">
         <v>1e-07</v>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.04928275048023634</v>
+        <v>0.04928275048023611</v>
       </c>
       <c r="H4">
-        <v>0.05332462002814563</v>
+        <v>0.05332462002814536</v>
       </c>
       <c r="I4">
         <v>1e-07</v>
@@ -585,10 +585,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.04343486159147247</v>
+        <v>0.04343486159147281</v>
       </c>
       <c r="H5">
-        <v>0.04698331211634963</v>
+        <v>0.04698331211635</v>
       </c>
       <c r="I5">
         <v>1e-07</v>
@@ -615,10 +615,10 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.000480851538932292</v>
+        <v>0.000480851538931848</v>
       </c>
       <c r="H6">
-        <v>0.0004863947059102807</v>
+        <v>0.0004863947059098315</v>
       </c>
       <c r="I6">
         <v>7.395070861534911</v>
@@ -633,13 +633,13 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>622.0975131177111</v>
+        <v>622.0975131177256</v>
       </c>
       <c r="D7">
-        <v>2.615513239845611e-137</v>
+        <v>2.615513239826521e-137</v>
       </c>
       <c r="E7">
-        <v>3.731713516710749e-136</v>
+        <v>3.731713516683511e-136</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1014130030216347</v>
+        <v>0.1014130030216354</v>
       </c>
       <c r="H8">
-        <v>0.1183306327066449</v>
+        <v>0.1183306327066457</v>
       </c>
       <c r="I8">
         <v>1e-07</v>
@@ -708,7 +708,7 @@
         <v>0.1183758851601733</v>
       </c>
       <c r="H9">
-        <v>0.1443958754457929</v>
+        <v>0.144395875445793</v>
       </c>
       <c r="I9">
         <v>1e-07</v>
@@ -765,10 +765,10 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.02908039284705877</v>
+        <v>0.02908039284705888</v>
       </c>
       <c r="H11">
-        <v>0.03108056085522716</v>
+        <v>0.03108056085522727</v>
       </c>
       <c r="I11">
         <v>1e-07</v>
@@ -795,10 +795,10 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.06351221306363897</v>
+        <v>0.06351221306363874</v>
       </c>
       <c r="H12">
-        <v>0.07247245721957156</v>
+        <v>0.07247245721957128</v>
       </c>
       <c r="I12">
         <v>1e-07</v>
@@ -825,10 +825,10 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.008207529092450372</v>
+        <v>0.008207529092450261</v>
       </c>
       <c r="H13">
-        <v>0.008414914779470145</v>
+        <v>0.008414914779470029</v>
       </c>
       <c r="I13">
         <v>1e-07</v>
@@ -857,10 +857,10 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>0.001272804259509708</v>
+        <v>0.001272804259509486</v>
       </c>
       <c r="H14">
-        <v>0.001491414716951406</v>
+        <v>0.001491414716951145</v>
       </c>
       <c r="I14">
         <v>3.265817138583024</v>
@@ -887,10 +887,10 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>0.0003307792932323306</v>
+        <v>0.0003307792932318865</v>
       </c>
       <c r="H15">
-        <v>0.0003661439139236931</v>
+        <v>0.0003661439139232014</v>
       </c>
       <c r="I15">
         <v>1484.266922510339</v>
@@ -917,10 +917,10 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>0.001313837583966637</v>
+        <v>0.001313837583966304</v>
       </c>
       <c r="H16">
-        <v>0.00142159050095659</v>
+        <v>0.001421590500956229</v>
       </c>
       <c r="I16">
         <v>4.773169110100421</v>
@@ -947,10 +947,10 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>0.003789804114808892</v>
+        <v>0.003789804114809003</v>
       </c>
       <c r="H17">
-        <v>0.004099415609070347</v>
+        <v>0.004099415609070467</v>
       </c>
       <c r="I17">
         <v>2.323872562569231e-06</v>
@@ -1007,10 +1007,10 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>0.003154409876658715</v>
+        <v>0.003154409876658826</v>
       </c>
       <c r="H19">
-        <v>0.003435071601897987</v>
+        <v>0.003435071601898108</v>
       </c>
       <c r="I19">
         <v>8.525853651265032e-05</v>
@@ -1037,10 +1037,10 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>0.001153120079402825</v>
+        <v>0.001153120079402936</v>
       </c>
       <c r="H20">
-        <v>0.001345482576365121</v>
+        <v>0.001345482576365251</v>
       </c>
       <c r="I20">
         <v>7.218834808721633</v>
@@ -1097,10 +1097,10 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>0.003539048930218169</v>
+        <v>0.003539048930218391</v>
       </c>
       <c r="H22">
-        <v>0.003753397857676914</v>
+        <v>0.003753397857677149</v>
       </c>
       <c r="I22">
         <v>1.516884523025969e-05</v>
@@ -1127,10 +1127,10 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>0.002888928871128349</v>
+        <v>0.002888928871128571</v>
       </c>
       <c r="H23">
-        <v>0.003087631245483975</v>
+        <v>0.003087631245484212</v>
       </c>
       <c r="I23">
         <v>0.0005615262789388786</v>
@@ -1157,10 +1157,10 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>0.009030755246734135</v>
+        <v>0.009030755246734024</v>
       </c>
       <c r="H24">
-        <v>0.01030480582724418</v>
+        <v>0.01030480582724405</v>
       </c>
       <c r="I24">
         <v>1e-07</v>
@@ -1187,10 +1187,10 @@
         <v>2</v>
       </c>
       <c r="G25">
-        <v>0.001339299310419872</v>
+        <v>0.001339299310419539</v>
       </c>
       <c r="H25">
-        <v>0.001373140373240109</v>
+        <v>0.001373140373239768</v>
       </c>
       <c r="I25">
         <v>6.211214959732177</v>
@@ -1207,13 +1207,13 @@
         <v>12</v>
       </c>
       <c r="C26">
-        <v>4.376444611680199</v>
+        <v>4.376444611683837</v>
       </c>
       <c r="D26">
-        <v>0.03643893022644008</v>
+        <v>0.03643893022636232</v>
       </c>
       <c r="E26">
-        <v>0.5198966168051702</v>
+        <v>0.5198966168040609</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1225,10 +1225,10 @@
         <v>0.0004021058653088383</v>
       </c>
       <c r="I26">
-        <v>11.69772190249851</v>
+        <v>11.69772190247723</v>
       </c>
       <c r="J26">
-        <v>0.08548673052198399</v>
+        <v>0.0854867305221395</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1237,10 +1237,10 @@
         <v>13</v>
       </c>
       <c r="C27">
-        <v>3.192967813498399</v>
+        <v>3.192967813491123</v>
       </c>
       <c r="D27">
-        <v>0.07395563360285955</v>
+        <v>0.07395563360318874</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1249,16 +1249,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.0002650186265225063</v>
+        <v>0.0002650186265223953</v>
       </c>
       <c r="H27">
-        <v>0.000293352574247981</v>
+        <v>0.000293352574247858</v>
       </c>
       <c r="I27">
-        <v>21.13927136543051</v>
+        <v>21.13927136550741</v>
       </c>
       <c r="J27">
-        <v>0.04730532016516525</v>
+        <v>0.04730532016499316</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1279,10 +1279,10 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.0007879544323672327</v>
+        <v>0.0007879544323671217</v>
       </c>
       <c r="H28">
-        <v>0.0008525776320525356</v>
+        <v>0.0008525776320524152</v>
       </c>
       <c r="I28">
         <v>1.009054215597706</v>
@@ -1309,10 +1309,10 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.0009190397405388628</v>
+        <v>0.0009190397405389739</v>
       </c>
       <c r="H29">
-        <v>0.0009941215280755901</v>
+        <v>0.0009941215280757105</v>
       </c>
       <c r="I29">
         <v>0.4673395295418399</v>
@@ -1327,28 +1327,28 @@
         <v>16</v>
       </c>
       <c r="C30">
-        <v>11.31082453006093</v>
+        <v>11.31082453005365</v>
       </c>
       <c r="D30">
-        <v>0.0007705654665555431</v>
+        <v>0.0007705654665585621</v>
       </c>
       <c r="E30">
-        <v>0.01099413118331445</v>
+        <v>0.01099413118335753</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.001027717488721658</v>
+        <v>0.001027717488721214</v>
       </c>
       <c r="H30">
-        <v>0.001039564824510232</v>
+        <v>0.001039564824509782</v>
       </c>
       <c r="I30">
-        <v>0.3650226598533106</v>
+        <v>0.3650226598546386</v>
       </c>
       <c r="J30">
-        <v>2.739555950860321</v>
+        <v>2.739555950850355</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1369,10 +1369,10 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.002491311653702311</v>
+        <v>0.002491311653702755</v>
       </c>
       <c r="H31">
-        <v>0.002712974612600168</v>
+        <v>0.002712974612600651</v>
       </c>
       <c r="I31">
         <v>4.111614534526989e-05</v>
@@ -1399,10 +1399,10 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.0009732591710461813</v>
+        <v>0.0009732591710466254</v>
       </c>
       <c r="H32">
-        <v>0.001135617426424801</v>
+        <v>0.001135617426425319</v>
       </c>
       <c r="I32">
         <v>0.21652653669859</v>
@@ -1417,28 +1417,28 @@
         <v>19</v>
       </c>
       <c r="C33">
-        <v>8.484483040563646</v>
+        <v>8.484483040549094</v>
       </c>
       <c r="D33">
-        <v>0.003581883469032673</v>
+        <v>0.003581883469061325</v>
       </c>
       <c r="E33">
-        <v>0.05110493326143904</v>
+        <v>0.05110493326184782</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.0006391970493302424</v>
+        <v>0.0006391970493303534</v>
       </c>
       <c r="H33">
-        <v>0.00077969780243266</v>
+        <v>0.0007796978024327955</v>
       </c>
       <c r="I33">
-        <v>1.499864692764099</v>
+        <v>1.499864692775012</v>
       </c>
       <c r="J33">
-        <v>0.6667268086410522</v>
+        <v>0.666726808636201</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1489,10 +1489,10 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.002055488280790274</v>
+        <v>0.002055488280789941</v>
       </c>
       <c r="H35">
-        <v>0.002196866078608352</v>
+        <v>0.002196866078607996</v>
       </c>
       <c r="I35">
         <v>0.0006776969868083336</v>
@@ -1549,10 +1549,10 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.0008082679421480554</v>
+        <v>0.0008082679421479444</v>
       </c>
       <c r="H37">
-        <v>0.0008286910439842242</v>
+        <v>0.0008286910439841103</v>
       </c>
       <c r="I37">
         <v>1.149030987690182</v>
@@ -1581,10 +1581,10 @@
         <v>2</v>
       </c>
       <c r="G38">
-        <v>0.0001589791002205576</v>
+        <v>0.0001589791002201135</v>
       </c>
       <c r="H38">
-        <v>0.0001862845508137802</v>
+        <v>0.0001862845508132599</v>
       </c>
       <c r="I38">
         <v>3949.642938543876</v>
@@ -1611,10 +1611,10 @@
         <v>2</v>
       </c>
       <c r="G39">
-        <v>6.202047828485213e-05</v>
+        <v>6.202047828474111e-05</v>
       </c>
       <c r="H39">
-        <v>6.865127632607094e-05</v>
+        <v>6.865127632594803e-05</v>
       </c>
       <c r="I39">
         <v>7491.892896790609</v>
@@ -1641,10 +1641,10 @@
         <v>2</v>
       </c>
       <c r="G40">
-        <v>3.511462307037583e-06</v>
+        <v>3.511462306149404e-06</v>
       </c>
       <c r="H40">
-        <v>3.799450952743106e-06</v>
+        <v>3.799450951782084e-06</v>
       </c>
       <c r="I40">
         <v>10663.18535367835</v>
@@ -1674,7 +1674,7 @@
         <v>0.0002588055894969798</v>
       </c>
       <c r="H41">
-        <v>0.0002799489475334194</v>
+        <v>0.0002799489475334195</v>
       </c>
       <c r="I41">
         <v>2372.463072527626</v>
@@ -1701,10 +1701,10 @@
         <v>2</v>
       </c>
       <c r="G42">
-        <v>0.0004936697664011946</v>
+        <v>0.0004936697664014167</v>
       </c>
       <c r="H42">
-        <v>0.0004993606995179374</v>
+        <v>0.0004993606995181619</v>
       </c>
       <c r="I42">
         <v>719.0212857434724</v>
@@ -1731,10 +1731,10 @@
         <v>2</v>
       </c>
       <c r="G43">
-        <v>2.897371074639388e-05</v>
+        <v>2.897371074617183e-05</v>
       </c>
       <c r="H43">
-        <v>3.155162926764835e-05</v>
+        <v>3.155162926740656e-05</v>
       </c>
       <c r="I43">
         <v>9168.234622643584</v>
@@ -1761,10 +1761,10 @@
         <v>2</v>
       </c>
       <c r="G44">
-        <v>0.0001933111784154784</v>
+        <v>0.0001933111784158115</v>
       </c>
       <c r="H44">
-        <v>0.0002255591824481399</v>
+        <v>0.0002255591824485287</v>
       </c>
       <c r="I44">
         <v>3189.605912390526</v>
@@ -1791,10 +1791,10 @@
         <v>2</v>
       </c>
       <c r="G45">
-        <v>0.0002652412936027249</v>
+        <v>0.0002652412936030579</v>
       </c>
       <c r="H45">
-        <v>0.0003235435050163894</v>
+        <v>0.0003235435050167957</v>
       </c>
       <c r="I45">
         <v>1871.452913861755</v>
@@ -1821,10 +1821,10 @@
         <v>2</v>
       </c>
       <c r="G46">
-        <v>5.15608213491614e-06</v>
+        <v>5.156082135027162e-06</v>
       </c>
       <c r="H46">
-        <v>5.468369615903394e-06</v>
+        <v>5.468369616021141e-06</v>
       </c>
       <c r="I46">
         <v>10566.76085149483</v>
@@ -1851,10 +1851,10 @@
         <v>2</v>
       </c>
       <c r="G47">
-        <v>0.0001638289073937482</v>
+        <v>0.0001638289073940813</v>
       </c>
       <c r="H47">
-        <v>0.0001750971643635058</v>
+        <v>0.0001750971643638617</v>
       </c>
       <c r="I47">
         <v>4197.575611040906</v>
@@ -1881,10 +1881,10 @@
         <v>2</v>
       </c>
       <c r="G48">
-        <v>3.863404972215267e-05</v>
+        <v>3.863404972204165e-05</v>
       </c>
       <c r="H48">
-        <v>4.408450565093706e-05</v>
+        <v>4.408450565081035e-05</v>
       </c>
       <c r="I48">
         <v>8563.687539177194</v>
@@ -1911,10 +1911,10 @@
         <v>2</v>
       </c>
       <c r="G49">
-        <v>4.45325824794951e-05</v>
+        <v>4.453258247916203e-05</v>
       </c>
       <c r="H49">
-        <v>4.565782006418668e-05</v>
+        <v>4.565782006384519e-05</v>
       </c>
       <c r="I49">
         <v>8490.668344211274</v>

--- a/CSVs/Table2_tests.xlsx
+++ b/CSVs/Table2_tests.xlsx
@@ -495,10 +495,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.09790898246364343</v>
+        <v>0.09790898246364355</v>
       </c>
       <c r="H2">
-        <v>0.1147253368120121</v>
+        <v>0.1147253368120123</v>
       </c>
       <c r="I2">
         <v>1e-07</v>
@@ -528,7 +528,7 @@
         <v>0.06580258704375286</v>
       </c>
       <c r="H3">
-        <v>0.07283774184009072</v>
+        <v>0.07283774184009073</v>
       </c>
       <c r="I3">
         <v>1e-07</v>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.04928275048023611</v>
+        <v>0.04928275048023689</v>
       </c>
       <c r="H4">
-        <v>0.05332462002814536</v>
+        <v>0.05332462002814624</v>
       </c>
       <c r="I4">
         <v>1e-07</v>
@@ -585,10 +585,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.04343486159147281</v>
+        <v>0.04343486159147236</v>
       </c>
       <c r="H5">
-        <v>0.04698331211635</v>
+        <v>0.04698331211634951</v>
       </c>
       <c r="I5">
         <v>1e-07</v>
@@ -615,10 +615,10 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.000480851538931848</v>
+        <v>0.00048085153893207</v>
       </c>
       <c r="H6">
-        <v>0.0004863947059098315</v>
+        <v>0.000486394705910056</v>
       </c>
       <c r="I6">
         <v>7.395070861534911</v>
@@ -645,10 +645,10 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.054005846515503</v>
+        <v>0.05400584651550333</v>
       </c>
       <c r="H7">
-        <v>0.05881098429046576</v>
+        <v>0.05881098429046615</v>
       </c>
       <c r="I7">
         <v>1e-07</v>
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1014130030216354</v>
+        <v>0.1014130030216349</v>
       </c>
       <c r="H8">
-        <v>0.1183306327066457</v>
+        <v>0.1183306327066451</v>
       </c>
       <c r="I8">
         <v>1e-07</v>
@@ -705,10 +705,10 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1183758851601733</v>
+        <v>0.1183758851601731</v>
       </c>
       <c r="H9">
-        <v>0.144395875445793</v>
+        <v>0.1443958754457927</v>
       </c>
       <c r="I9">
         <v>1e-07</v>
@@ -735,10 +735,10 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.03354213059829625</v>
+        <v>0.03354213059829658</v>
       </c>
       <c r="H10">
-        <v>0.03557367067027336</v>
+        <v>0.03557367067027372</v>
       </c>
       <c r="I10">
         <v>1e-07</v>
@@ -765,10 +765,10 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.02908039284705888</v>
+        <v>0.02908039284705854</v>
       </c>
       <c r="H11">
-        <v>0.03108056085522727</v>
+        <v>0.03108056085522691</v>
       </c>
       <c r="I11">
         <v>1e-07</v>
@@ -783,22 +783,22 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>761.6573936116765</v>
+        <v>761.657393611662</v>
       </c>
       <c r="D12">
-        <v>1.171359812786192e-167</v>
+        <v>1.171359812794737e-167</v>
       </c>
       <c r="E12">
-        <v>1.671251049206705e-166</v>
+        <v>1.671251049218896e-166</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.06351221306363874</v>
+        <v>0.06351221306363897</v>
       </c>
       <c r="H12">
-        <v>0.07247245721957128</v>
+        <v>0.07247245721957155</v>
       </c>
       <c r="I12">
         <v>1e-07</v>
@@ -857,10 +857,10 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>0.001272804259509486</v>
+        <v>0.001272804259509597</v>
       </c>
       <c r="H14">
-        <v>0.001491414716951145</v>
+        <v>0.001491414716951276</v>
       </c>
       <c r="I14">
         <v>3.265817138583024</v>
@@ -887,10 +887,10 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>0.0003307792932318865</v>
+        <v>0.0003307792932321085</v>
       </c>
       <c r="H15">
-        <v>0.0003661439139232014</v>
+        <v>0.0003661439139234472</v>
       </c>
       <c r="I15">
         <v>1484.266922510339</v>
@@ -917,10 +917,10 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>0.001313837583966304</v>
+        <v>0.001313837583966859</v>
       </c>
       <c r="H16">
-        <v>0.001421590500956229</v>
+        <v>0.001421590500956831</v>
       </c>
       <c r="I16">
         <v>4.773169110100421</v>
@@ -947,10 +947,10 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>0.003789804114809003</v>
+        <v>0.003789804114808781</v>
       </c>
       <c r="H17">
-        <v>0.004099415609070467</v>
+        <v>0.004099415609070226</v>
       </c>
       <c r="I17">
         <v>2.323872562569231e-06</v>
@@ -977,10 +977,10 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>0.002571591079439051</v>
+        <v>0.002571591079438829</v>
       </c>
       <c r="H18">
-        <v>0.002601235902421398</v>
+        <v>0.002601235902421172</v>
       </c>
       <c r="I18">
         <v>0.007868316008225065</v>
@@ -1007,10 +1007,10 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>0.003154409876658826</v>
+        <v>0.003154409876659381</v>
       </c>
       <c r="H19">
-        <v>0.003435071601898108</v>
+        <v>0.003435071601898714</v>
       </c>
       <c r="I19">
         <v>8.525853651265032e-05</v>
@@ -1037,10 +1037,10 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>0.001153120079402936</v>
+        <v>0.001153120079402492</v>
       </c>
       <c r="H20">
-        <v>0.001345482576365251</v>
+        <v>0.001345482576364732</v>
       </c>
       <c r="I20">
         <v>7.218834808721633</v>
@@ -1067,10 +1067,10 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>0.002040455725612622</v>
+        <v>0.002040455725612511</v>
       </c>
       <c r="H21">
-        <v>0.002488964626617572</v>
+        <v>0.002488964626617436</v>
       </c>
       <c r="I21">
         <v>0.01447445359831446</v>
@@ -1097,10 +1097,10 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>0.003539048930218391</v>
+        <v>0.00353904893021828</v>
       </c>
       <c r="H22">
-        <v>0.003753397857677149</v>
+        <v>0.003753397857677033</v>
       </c>
       <c r="I22">
         <v>1.516884523025969e-05</v>
@@ -1127,10 +1127,10 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>0.002888928871128571</v>
+        <v>0.002888928871128349</v>
       </c>
       <c r="H23">
-        <v>0.003087631245484212</v>
+        <v>0.003087631245483974</v>
       </c>
       <c r="I23">
         <v>0.0005615262789388786</v>
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>111.6040696402197</v>
+        <v>111.6040696402051</v>
       </c>
       <c r="D24">
-        <v>5.827525715727574e-25</v>
+        <v>5.82752571576999e-25</v>
       </c>
       <c r="E24">
-        <v>8.314489160698621e-24</v>
+        <v>8.31448916075914e-24</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -1219,10 +1219,10 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.0003431654873200518</v>
+        <v>0.0003431654873201628</v>
       </c>
       <c r="H26">
-        <v>0.0004021058653088383</v>
+        <v>0.0004021058653089685</v>
       </c>
       <c r="I26">
         <v>11.69772190247723</v>
@@ -1237,10 +1237,10 @@
         <v>13</v>
       </c>
       <c r="C27">
-        <v>3.192967813491123</v>
+        <v>3.192967813498399</v>
       </c>
       <c r="D27">
-        <v>0.07395563360318874</v>
+        <v>0.07395563360285955</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1249,16 +1249,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.0002650186265223953</v>
+        <v>0.0002650186265220622</v>
       </c>
       <c r="H27">
-        <v>0.000293352574247858</v>
+        <v>0.0002933525742474893</v>
       </c>
       <c r="I27">
-        <v>21.13927136550741</v>
+        <v>21.13927136543051</v>
       </c>
       <c r="J27">
-        <v>0.04730532016499316</v>
+        <v>0.04730532016516525</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1279,10 +1279,10 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.0007879544323671217</v>
+        <v>0.0007879544323674548</v>
       </c>
       <c r="H28">
-        <v>0.0008525776320524152</v>
+        <v>0.000852577632052776</v>
       </c>
       <c r="I28">
         <v>1.009054215597706</v>
@@ -1309,10 +1309,10 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.0009190397405389739</v>
+        <v>0.0009190397405386408</v>
       </c>
       <c r="H29">
-        <v>0.0009941215280757105</v>
+        <v>0.0009941215280753499</v>
       </c>
       <c r="I29">
         <v>0.4673395295418399</v>
@@ -1339,10 +1339,10 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.001027717488721214</v>
+        <v>0.001027717488720992</v>
       </c>
       <c r="H30">
-        <v>0.001039564824509782</v>
+        <v>0.001039564824509558</v>
       </c>
       <c r="I30">
         <v>0.3650226598546386</v>
@@ -1369,10 +1369,10 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.002491311653702755</v>
+        <v>0.002491311653702644</v>
       </c>
       <c r="H31">
-        <v>0.002712974612600651</v>
+        <v>0.002712974612600531</v>
       </c>
       <c r="I31">
         <v>4.111614534526989e-05</v>
@@ -1399,10 +1399,10 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.0009732591710466254</v>
+        <v>0.0009732591710461813</v>
       </c>
       <c r="H32">
-        <v>0.001135617426425319</v>
+        <v>0.001135617426424801</v>
       </c>
       <c r="I32">
         <v>0.21652653669859</v>
@@ -1432,7 +1432,7 @@
         <v>0.0006391970493303534</v>
       </c>
       <c r="H33">
-        <v>0.0007796978024327955</v>
+        <v>0.0007796978024327953</v>
       </c>
       <c r="I33">
         <v>1.499864692775012</v>
@@ -1459,10 +1459,10 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.00262247824783679</v>
+        <v>0.002622478247837123</v>
       </c>
       <c r="H34">
-        <v>0.002781313406884182</v>
+        <v>0.002781313406884536</v>
       </c>
       <c r="I34">
         <v>2.83733938007668e-05</v>
@@ -1507,13 +1507,13 @@
         <v>22</v>
       </c>
       <c r="C36">
-        <v>13.43544620010653</v>
+        <v>13.43544620009197</v>
       </c>
       <c r="D36">
-        <v>0.0002469142493313549</v>
+        <v>0.0002469142493332703</v>
       </c>
       <c r="E36">
-        <v>0.003522877375121581</v>
+        <v>0.003522877375148909</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1525,10 +1525,10 @@
         <v>0.00123495687965917</v>
       </c>
       <c r="I36">
-        <v>0.1261723208537169</v>
+        <v>0.1261723208546349</v>
       </c>
       <c r="J36">
-        <v>7.925668587481967</v>
+        <v>7.9256685874243</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1581,10 +1581,10 @@
         <v>2</v>
       </c>
       <c r="G38">
-        <v>0.0001589791002201135</v>
+        <v>0.0001589791002205576</v>
       </c>
       <c r="H38">
-        <v>0.0001862845508132599</v>
+        <v>0.0001862845508137802</v>
       </c>
       <c r="I38">
         <v>3949.642938543876</v>
@@ -1611,10 +1611,10 @@
         <v>2</v>
       </c>
       <c r="G39">
-        <v>6.202047828474111e-05</v>
+        <v>6.202047828451906e-05</v>
       </c>
       <c r="H39">
-        <v>6.865127632594803e-05</v>
+        <v>6.865127632570226e-05</v>
       </c>
       <c r="I39">
         <v>7491.892896790609</v>
@@ -1641,10 +1641,10 @@
         <v>2</v>
       </c>
       <c r="G40">
-        <v>3.511462306149404e-06</v>
+        <v>3.51146230692656e-06</v>
       </c>
       <c r="H40">
-        <v>3.799450951782084e-06</v>
+        <v>3.799450952622979e-06</v>
       </c>
       <c r="I40">
         <v>10663.18535367835</v>
@@ -1671,10 +1671,10 @@
         <v>2</v>
       </c>
       <c r="G41">
-        <v>0.0002588055894969798</v>
+        <v>0.0002588055894967578</v>
       </c>
       <c r="H41">
-        <v>0.0002799489475334195</v>
+        <v>0.0002799489475331792</v>
       </c>
       <c r="I41">
         <v>2372.463072527626</v>
@@ -1701,10 +1701,10 @@
         <v>2</v>
       </c>
       <c r="G42">
-        <v>0.0004936697664014167</v>
+        <v>0.0004936697664011946</v>
       </c>
       <c r="H42">
-        <v>0.0004993606995181619</v>
+        <v>0.0004993606995179373</v>
       </c>
       <c r="I42">
         <v>719.0212857434724</v>
@@ -1731,10 +1731,10 @@
         <v>2</v>
       </c>
       <c r="G43">
-        <v>2.897371074617183e-05</v>
+        <v>2.897371074661592e-05</v>
       </c>
       <c r="H43">
-        <v>3.155162926740656e-05</v>
+        <v>3.155162926789017e-05</v>
       </c>
       <c r="I43">
         <v>9168.234622643584</v>
@@ -1761,10 +1761,10 @@
         <v>2</v>
       </c>
       <c r="G44">
-        <v>0.0001933111784158115</v>
+        <v>0.0001933111784150343</v>
       </c>
       <c r="H44">
-        <v>0.0002255591824485287</v>
+        <v>0.0002255591824476217</v>
       </c>
       <c r="I44">
         <v>3189.605912390526</v>
@@ -1791,10 +1791,10 @@
         <v>2</v>
       </c>
       <c r="G45">
-        <v>0.0002652412936030579</v>
+        <v>0.0002652412936028359</v>
       </c>
       <c r="H45">
-        <v>0.0003235435050167957</v>
+        <v>0.0003235435050165247</v>
       </c>
       <c r="I45">
         <v>1871.452913861755</v>
@@ -1821,10 +1821,10 @@
         <v>2</v>
       </c>
       <c r="G46">
-        <v>5.156082135027162e-06</v>
+        <v>5.156082135138185e-06</v>
       </c>
       <c r="H46">
-        <v>5.468369616021141e-06</v>
+        <v>5.468369616138889e-06</v>
       </c>
       <c r="I46">
         <v>10566.76085149483</v>
@@ -1851,10 +1851,10 @@
         <v>2</v>
       </c>
       <c r="G47">
-        <v>0.0001638289073940813</v>
+        <v>0.0001638289073938592</v>
       </c>
       <c r="H47">
-        <v>0.0001750971643638617</v>
+        <v>0.0001750971643636244</v>
       </c>
       <c r="I47">
         <v>4197.575611040906</v>
@@ -1869,10 +1869,10 @@
         <v>22</v>
       </c>
       <c r="C48">
-        <v>0.4798933506681351</v>
+        <v>0.4798933506535832</v>
       </c>
       <c r="D48">
-        <v>0.7866698088528739</v>
+        <v>0.7866698088585976</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1887,10 +1887,10 @@
         <v>4.408450565081035e-05</v>
       </c>
       <c r="I48">
-        <v>8563.687539177194</v>
+        <v>8563.687539239503</v>
       </c>
       <c r="J48">
-        <v>0.0001167721259591964</v>
+        <v>0.0001167721259583468</v>
       </c>
     </row>
     <row r="49" spans="1:10">
